--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-organization-legal-form.xlsx
+++ b/CodeSystem-organization-legal-form.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
